--- a/Developer/配置表/Excel/scene.xlsx
+++ b/Developer/配置表/Excel/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
   <si>
     <t>场景ID</t>
   </si>
@@ -194,10 +194,7 @@
     <t>Ocean</t>
   </si>
   <si>
-    <t>5|7|0</t>
-  </si>
-  <si>
-    <t>43|-94|0.00</t>
+    <t>46|-92|0.00</t>
   </si>
   <si>
     <t>10|10|10|10</t>
@@ -1299,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1621,28 +1618,28 @@
         <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
       </c>
       <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -1651,13 +1648,13 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="P8">
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1703,13 +1700,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" t="s">
-        <v>65</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1721,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -1733,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -1897,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1906,13 +1903,13 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
@@ -1950,10 +1947,10 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
         <v>72</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1983,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1991,16 +1988,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>76</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -2030,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2038,13 +2035,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" t="s">
-        <v>82</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2077,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2088,10 +2085,10 @@
         <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
         <v>84</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -2121,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2132,10 +2129,10 @@
         <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
         <v>87</v>
-      </c>
-      <c r="G11" t="s">
-        <v>88</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -2165,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2176,10 +2173,10 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
         <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>91</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
@@ -2203,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2211,16 +2208,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
         <v>93</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" t="s">
         <v>95</v>
-      </c>
-      <c r="G13" t="s">
-        <v>96</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>44</v>
@@ -2250,7 +2247,7 @@
         <v>2000</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2258,13 +2255,13 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
         <v>98</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>99</v>
-      </c>
-      <c r="H14" t="s">
-        <v>100</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -2293,13 +2290,13 @@
         <v>301</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
@@ -2329,12 +2326,12 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2342,13 +2339,13 @@
         <v>301</v>
       </c>
       <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>44</v>
@@ -2378,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Developer/配置表/Excel/scene.xlsx
+++ b/Developer/配置表/Excel/scene.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t>场景ID</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>点击战斗开始视角</t>
-  </si>
-  <si>
-    <t>Ocean</t>
   </si>
   <si>
     <t>46|-92|0.00</t>
@@ -1297,7 +1294,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1615,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1624,16 +1621,16 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1654,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="Q8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1700,13 +1697,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
-      </c>
-      <c r="G1" t="s">
-        <v>64</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -1718,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
@@ -1730,7 +1727,7 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -1894,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>42</v>
@@ -1903,13 +1900,13 @@
         <v>42</v>
       </c>
       <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>50</v>
@@ -1947,10 +1944,10 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
         <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>44</v>
@@ -1980,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1988,16 +1985,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -2027,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2035,13 +2032,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>81</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2085,10 +2082,10 @@
         <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>83</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>44</v>
@@ -2118,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2129,10 +2126,10 @@
         <v>42</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
         <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>87</v>
       </c>
       <c r="H11" t="s">
         <v>44</v>
@@ -2162,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2173,10 +2170,10 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
@@ -2200,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2208,16 +2205,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
         <v>92</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" t="s">
         <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>95</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>44</v>
@@ -2247,7 +2244,7 @@
         <v>2000</v>
       </c>
       <c r="Q13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2255,13 +2252,13 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>98</v>
-      </c>
-      <c r="H14" t="s">
-        <v>99</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
@@ -2290,13 +2287,13 @@
         <v>301</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
@@ -2326,12 +2323,12 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2339,13 +2336,13 @@
         <v>301</v>
       </c>
       <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>44</v>
@@ -2375,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Developer/配置表/Excel/scene.xlsx
+++ b/Developer/配置表/Excel/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14340"/>
+    <workbookView windowWidth="28800" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <t>点击战斗开始视角</t>
   </si>
   <si>
-    <t>46|-92|0.00</t>
+    <t>45|45|0.00</t>
   </si>
   <si>
     <t>10|10|10|10</t>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1645,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="O8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P8">
         <v>10</v>

--- a/Developer/配置表/Excel/scene.xlsx
+++ b/Developer/配置表/Excel/scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13740"/>
+    <workbookView windowWidth="28800" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1293,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1633,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L8">
         <v>14</v>
